--- a/9семестр/КИС/3.xlsx
+++ b/9семестр/КИС/3.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
